--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_002.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_002.xlsx
@@ -31,336 +31,336 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295005AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor pressure control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
-  </si>
-  <si>
-    <t>(295021AK2.05) Knowledge of the relationship between the (APE 21) LOSS OF SHUTDOWN COOLING and the following systems or components: (CFR: 41.7 / 45.8) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(295018AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Increasing cooling water flow to heat exchangers</t>
-  </si>
-  <si>
-    <t>(295037EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Reactor protection system</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
+    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK2.03) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295021AA1.07) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
+  </si>
+  <si>
+    <t>(295038EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.5 / 45.6) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(600000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit for use of respirators</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295016AK2.15) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Main turbine and auxiliaries</t>
+  </si>
+  <si>
+    <t>(295025EA1.09) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295019AK2.06) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Offgas system</t>
+  </si>
+  <si>
+    <t>(295024EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Drywell spray (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
   </si>
   <si>
     <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
   </si>
   <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295023AA1.04) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Radiation monitoring equipment</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Under-excitation</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295024EA1.24) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Thermal-hydraulic instabilities</t>
-  </si>
-  <si>
-    <t>(295020AK2.07) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295012AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.5 / 45.6) Venting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295017AA1.07) Ability to operate and/or monitor the following as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system </t>
-  </si>
-  <si>
-    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295013AK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.8 to 41.10) Containment integrity</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(215005K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Effects of voids on LPRM indication</t>
-  </si>
-  <si>
-    <t>(205000K3.01) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor pressure</t>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(295006AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295037EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Bypassing rod insertion blocks</t>
+  </si>
+  <si>
+    <t>(295001AA2.09) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295002AA1.05) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) Main turbine generator and auxiliaries system</t>
+  </si>
+  <si>
+    <t>(295017AK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295033EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Anticipated/emergency depressurization</t>
+  </si>
+  <si>
+    <t>(295022AA2.04) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295029EK2.08) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Drywell/suppression chamber ventilation</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215003K4.08) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) SRMS-IRM overlap</t>
+  </si>
+  <si>
+    <t>(262001A2.11) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded bus voltages</t>
+  </si>
+  <si>
+    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(259002A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Reactor power</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(261000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Secondary containment radiation/ contamination levels</t>
+  </si>
+  <si>
+    <t>(212000A3.09) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) System actuation</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (291001K1.02) VALVES (CFR: 41.3) The function and operation of relief valves</t>
+  </si>
+  <si>
+    <t>(209001K4.09) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Load sequencing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(400000A2.07) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(215004K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.7 / 45.7) RPS</t>
+  </si>
+  <si>
+    <t>(510000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SWS*) SERVICE WATER SYSTEM and the following systems: (CFR: 41.4 to 41.8 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(264000A4.07) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of control to local/remote panels</t>
+  </si>
+  <si>
+    <t>(217000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(209002A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(218000K3.01) Knowledge of the effect that a loss or malfunction of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A3.02) Ability to monitor automatic operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Pump start </t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(215003K4.04) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ranging IRMs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(262001A2.03) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of/degraded offsite power </t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(286000K3.10) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) DC electrical distribution systems</t>
+  </si>
+  <si>
+    <t>(290002K1.19) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 RVI) REACTOR VESSEL INTERNALS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Traversing in\u2011core probe system</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (291001K1.04) VALVES (CFR: 41.3) The failed-valve positions for different operators (open, closed, and as-is positions; spring-loaded valves; hydraulically/ pneumatically controlled valves; electric motor-driven valves)</t>
+  </si>
+  <si>
+    <t>(219000K4.09) Knowledge of (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Heat exchanger cooling</t>
+  </si>
+  <si>
+    <t>(256000A2.13) Ability to (a) predict the impacts of the following on the (SF2 CDS) CONDENSATE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of instrument air system</t>
+  </si>
+  <si>
+    <t>(201003K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(234000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 FH) FUEL HANDLING and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Containment ventilation</t>
+  </si>
+  <si>
+    <t>(239003A4.09) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset</t>
+  </si>
+  <si>
+    <t>(271000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 OG) OFFGAS SYSTEM: (CFR: 41.5 / 41.7 / 45.4) Hydrogen and oxygen recombination</t>
+  </si>
+  <si>
+    <t>(204000A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(233000K2.01) (SF9 FPCCU) FUEL POOL COOLING/CLEANUP Knowledge of electrical power supplies to the following: (CFR: 41.7) Fuel pool cooling pumps</t>
+  </si>
+  <si>
+    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.08) NEUTRON LIFE CYCLE (CFR: 41.1) Define effective multiplication factor (K-effective) and discuss its relationship to the state of a reactor (critical, subcritical, and supercritical)</t>
+  </si>
+  <si>
+    <t>(292003K1.07) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain prompt critical, prompt jump, and prompt drop</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293009K1.25) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of local power distribution </t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295005AA2.03) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine valve position</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(295038EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Radiation levels</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295011AA2.04) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) System/component operating limitations</t>
+  </si>
+  <si>
+    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002) (SF3 SRV) SAFETY RELIEF VALVES (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
     <t>(263000A2.04) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
   </si>
   <si>
-    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215003K4.11) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatically bypassing IRM SCRAM signals</t>
-  </si>
-  <si>
-    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
-  </si>
-  <si>
-    <t>(209001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Core spray pressure</t>
-  </si>
-  <si>
-    <t>(209002K6.07) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Plant ventilation systems (HPCS room coolers)</t>
-  </si>
-  <si>
-    <t>(211000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Core spray system</t>
-  </si>
-  <si>
-    <t>(239002A3.01) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation after ADS actuation</t>
-  </si>
-  <si>
-    <t>(264000K5.09) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.5 / 45.3) Fuel consumption rate</t>
-  </si>
-  <si>
-    <t>(215004K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
-  </si>
-  <si>
-    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(203000A4.02) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System valves</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (291007K1.04) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Purpose of a demineralizer</t>
-  </si>
-  <si>
-    <t>(400000K4.05) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Surge tank level control</t>
-  </si>
-  <si>
-    <t>(217000K2.01) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(218000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) ADS valve position indications</t>
-  </si>
-  <si>
-    <t>(261000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(212000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 RPS) REACTOR PROTECTION SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(259002A3.11) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Automatic selection of feedflow/steam flow/level channel input</t>
-  </si>
-  <si>
-    <t>(215005K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM/OPRM/APRM channel assignments</t>
-  </si>
-  <si>
-    <t>(205000K3.02) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor water level</t>
-  </si>
-  <si>
-    <t>(263000A2.02) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of ventilation during charging</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(241000K1.23) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation flow control system</t>
-  </si>
-  <si>
-    <t>(219000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
-  </si>
-  <si>
-    <t>(215001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.5 / 45.3) Area radiation monitor indications</t>
-  </si>
-  <si>
-    <t>(201001K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Control rod drive mechanisms</t>
-  </si>
-  <si>
-    <t>(288000A2.02) Ability to (a) predict the impacts of the following on the (SF9 PVS) PLANT VENTILATION SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Low reactor water level</t>
-  </si>
-  <si>
-    <t>(204000A4.04) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Heat exchanger temperature</t>
-  </si>
-  <si>
-    <t>(290003) (SF9 CRV) CONTROL ROOM VENTILATION (G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(272000K4.04) Knowledge of (SF7, SF9 RMS) RADIATION MONITORING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Process radiation monitoring surveillance testing</t>
-  </si>
-  <si>
-    <t>(223001K2.07) (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES Knowledge of electrical power supplies to the following: (CFR: 41.7) Containment atmosphere monitoring system</t>
-  </si>
-  <si>
-    <t>(271000A1.12) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Process radiation monitoring indications</t>
-  </si>
-  <si>
-    <t>(290002K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.7 / 45.7) SRVs</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
-  </si>
-  <si>
-    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
-  </si>
-  <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
-  </si>
-  <si>
-    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
-  </si>
-  <si>
-    <t>(293004K1.14) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Explain the condensing process</t>
-  </si>
-  <si>
-    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(295021AA2.05) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor vessel metal temperature</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.27) CONDUCT OF OPERATIONS Knowledge of system purpose and/or function (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295037EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295033EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Emergency plan</t>
-  </si>
-  <si>
-    <t>(295035) (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(215003A2.08) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Improper overlap</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(230000A2.16) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of, or inadequate, heat exchanger cooling flow </t>
-  </si>
-  <si>
-    <t>(286000) (SF8 FPS) FIRE PROTECTION SYSTEM  (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.01) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation pump trip</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259002A2.08) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Receipt of an ECCS initiation signal: FWCI</t>
+  </si>
+  <si>
+    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(259001A2.06) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(245000) (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(226001A2.19) Ability to (a) predict the impacts of the following on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Low (or negative) suppression chamber pressure during system operation (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
     <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
   </si>
   <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+    <t>(G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K3</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>A4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
+    <t>295002</t>
   </si>
   <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295013</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295022</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295011</t>
   </si>
   <si>
     <t>295034</t>
   </si>
   <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>223001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>292004</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>226001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
         <v>112</v>
@@ -1497,7 +1497,7 @@
         <v>3.6</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
         <v>113</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D42" t="s">
         <v>112</v>
@@ -1684,7 +1684,7 @@
         <v>2.9</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,7 +1698,7 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="D44" t="s">
         <v>113</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,7 +1851,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D53" t="s">
         <v>112</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1905,7 +1905,7 @@
         <v>2.8</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
         <v>112</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,7 +1987,7 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D61" t="s">
         <v>113</v>
@@ -2007,7 +2007,7 @@
         <v>3.1</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2330,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2432,7 +2432,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2517,7 +2517,7 @@
         <v>3.4</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
